--- a/src/test/java/tests/day16_webtables_excelOtomasyonu/ulkeler.xlsx
+++ b/src/test/java/tests/day16_webtables_excelOtomasyonu/ulkeler.xlsx
@@ -2168,7 +2168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
